--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\アカウント登録\regist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1 (4)" sheetId="5" r:id="rId4"/>
+    <sheet name="regist.php" sheetId="1" r:id="rId1"/>
+    <sheet name="regist_confirm.php" sheetId="3" r:id="rId2"/>
+    <sheet name="regist_complete.php" sheetId="4" r:id="rId3"/>
+    <sheet name="結合テスト" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -132,16 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>記号を入力</t>
-    <rPh sb="0" eb="2">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「ー」を入力</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
@@ -153,16 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>絵文字を入力</t>
-    <rPh sb="0" eb="3">
-      <t>エモジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Apacheオフ→リロード→オン→リロード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -187,26 +167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワードの確認</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>存在しない値を入力</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>confirm→complete</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -253,31 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日本語・アルファベット以外の言語を入力(中国語・韓国語・ロシア語)</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>チュウゴクゴ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>カンコクゴ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認者</t>
     <rPh sb="0" eb="3">
       <t>カクニンシャ</t>
@@ -303,6 +238,111 @@
     <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost/%E3%82%A2%E3%82%AB%E3%82%A6%E3%83%B3%E3%83%88%E7%AE%A1%E7%90%86/regist.php?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記号（！）を入力</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵文字（☺）を入力</t>
+    <rPh sb="0" eb="3">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>韓国語（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）を入力</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>カンコクゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost/%E3%82%A2%E3%82%AB%E3%82%A6%E3%83%B3%E3%83%88%E7%AE%A1%E7%90%86/regist_confirm.php?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAMPP操作、リロード</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAMPPでApacheオフ→確認画面リロード→XAMPPでApacheオン→確認画面リロード</t>
+    <rPh sb="15" eb="19">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクへのアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リロード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -310,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +364,23 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -344,17 +401,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,596 +697,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I44"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="57.25" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="2" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="57.25" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
-    <col min="4" max="4" width="31.625" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="2" max="3" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="31.625" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1256,42 +1345,42 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1332,32 +1421,32 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="47">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -97,13 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>都道府県</t>
-    <rPh sb="0" eb="4">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>市区町村</t>
     <rPh sb="0" eb="4">
       <t>シクチョウソン</t>
@@ -132,10 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>confirm→complete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録時にApacheオフ</t>
     <rPh sb="0" eb="3">
       <t>トウロクジ</t>
@@ -151,16 +140,6 @@
   </si>
   <si>
     <t>リロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容がそのまま残る</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ノコ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -298,13 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト対象ページ：http://localhost/%E3%82%A2%E3%82%AB%E3%82%A6%E3%83%B3%E3%83%88%E7%AE%A1%E7%90%87/regist.php?</t>
-    <rPh sb="3" eb="5">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -312,13 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト対象ページ：http://localhost/%E3%82%A2%E3%82%AB%E3%82%A6%E3%83%B3%E3%83%88%E7%AE%A1%E7%90%86/regist_confirm.php?</t>
-    <rPh sb="3" eb="5">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト項目</t>
     <rPh sb="3" eb="5">
       <t>コウモク</t>
@@ -340,13 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト対象ページ：http://localhost/%E3%82%A2%E3%82%AB%E3%82%A6%E3%83%B3%E3%83%88%E7%AE%A1%E7%90%86/regist_complete.php</t>
-    <rPh sb="3" eb="5">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト対象ページのURLを入力・アクセス</t>
     <rPh sb="3" eb="5">
       <t>タイショウ</t>
@@ -354,6 +312,97 @@
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト対象ページ：http://localhost/アカウント管理/regist.php?</t>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト対象ページ：http://localhost/アカウント管理/regist_confirm.php?</t>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト対象ページ：http://localhost/アカウント管理/regist_complete.php</t>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「アカウント登録画面」を①、「アカウント登録確認画面」を②、「アカウント登録完了画面」を③とする。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="37" eb="43">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②→③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力内容がそのまま残り、エラー表示されない</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字を入力</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーなし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -704,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K45"/>
+  <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,18 +772,18 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -746,730 +795,832 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
         <v>25</v>
       </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>27</v>
-      </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>28</v>
-      </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
         <v>25</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" t="s">
-        <v>28</v>
-      </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
         <v>25</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
         <v>25</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>28</v>
-      </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
         <v>25</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
         <v>25</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" t="s">
-        <v>28</v>
-      </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1635,7 @@
   <dimension ref="B1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1498,15 +1649,15 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1518,38 +1669,38 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1563,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1578,15 +1729,15 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1598,38 +1749,38 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1641,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I3"/>
+  <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1658,44 +1809,49 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="73">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -60,32 +60,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>姓</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名</t>
-    <rPh sb="0" eb="1">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -93,20 +67,6 @@
     <t>郵便番号</t>
     <rPh sb="0" eb="4">
       <t>ユウビンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市区町村</t>
-    <rPh sb="0" eb="4">
-      <t>シクチョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>番地</t>
-    <rPh sb="0" eb="2">
-      <t>バンチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,6 +363,315 @@
   </si>
   <si>
     <t>エラーなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平仮名を入力</t>
+    <rPh sb="0" eb="3">
+      <t>ヒラガナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カタカナを入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：指定された形式で入力してください。</t>
+  </si>
+  <si>
+    <t>半角数字を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：半角数字7文字で入力してください。</t>
+  </si>
+  <si>
+    <t>入力エラー：半角数字7文字で入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角数字を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：半角数字7文字で入力してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：半角数字8文字で入力してください。</t>
+  </si>
+  <si>
+    <t>半角アルファベットを入力</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角アルファベットを入力</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス形式（半角英数字、間に@を入れる）で入力</t>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空欄のまま「確認する」ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：名前（姓）が未入力です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：名前（名）が未入力です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：カナ（姓）が未入力です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：カナ（名）が未入力です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：パスワードが未入力です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：郵便番号が未入力です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：住所（市区町村）が未入力です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：住所（番地）が未入力です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：メールアドレスが未入力です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー：半角数字7文字で入力してください。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +712,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -460,17 +729,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K51"/>
+  <dimension ref="B1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -772,856 +1067,2116 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
         <v>5</v>
       </c>
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
         <v>4</v>
       </c>
-      <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
         <v>43</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" t="s">
-        <v>46</v>
-      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s">
+        <v>50</v>
+      </c>
+      <c r="F103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" t="s">
+        <v>50</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" t="s">
+        <v>50</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" t="s">
+        <v>50</v>
+      </c>
+      <c r="F108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" t="s">
+        <v>50</v>
+      </c>
+      <c r="F109" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" t="s">
+        <v>50</v>
+      </c>
+      <c r="F110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s">
+        <v>60</v>
+      </c>
+      <c r="F113" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" t="s">
+        <v>60</v>
+      </c>
+      <c r="F114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
+        <v>60</v>
+      </c>
+      <c r="F115" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>60</v>
+      </c>
+      <c r="F117" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>60</v>
+      </c>
+      <c r="F120" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B121" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1649,15 +3204,15 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1669,38 +3224,38 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1729,15 +3284,15 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1749,38 +3304,38 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +3364,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -1826,32 +3381,32 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="80">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -81,20 +81,6 @@
     <t>「ー」を入力</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録時にApacheオフ</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録時にmysqlオフ</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,10 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストページへアクセス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト対象ページのURLを入力・アクセス</t>
     <rPh sb="3" eb="5">
       <t>タイショウ</t>
@@ -672,6 +654,82 @@
   </si>
   <si>
     <t>入力エラー：半角数字7文字で入力してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト対象ページへアクセス</t>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス時の仕様確認</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス時の仕様確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBへの登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに内容が登録されない</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apacheオフにして登録</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysqlオフにして登録</t>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー表示：ページが開けない</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ表示：エラーが発生したためアカウント登録できません。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1050,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
@@ -1067,18 +1125,18 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -1090,169 +1148,169 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1262,155 +1320,155 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1420,155 +1478,155 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1578,155 +1636,155 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1736,155 +1794,155 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1894,155 +1952,155 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2052,155 +2110,155 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2210,155 +2268,155 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -2368,155 +2426,155 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -2526,155 +2584,155 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -2684,155 +2742,155 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -2842,155 +2900,155 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -3000,19 +3058,19 @@
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B112" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="F112" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -3022,155 +3080,155 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D113" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s">
+        <v>57</v>
+      </c>
+      <c r="F113" t="s">
         <v>60</v>
-      </c>
-      <c r="F113" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" t="s">
+        <v>57</v>
+      </c>
+      <c r="F114" t="s">
         <v>61</v>
-      </c>
-      <c r="C114" t="s">
-        <v>52</v>
-      </c>
-      <c r="D114" t="s">
-        <v>23</v>
-      </c>
-      <c r="E114" t="s">
-        <v>60</v>
-      </c>
-      <c r="F114" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C115" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F115" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C116" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F116" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D117" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E117" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F117" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F118" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E119" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C120" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D120" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F120" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F121" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -3190,29 +3248,30 @@
   <dimension ref="B1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="36.375" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -3224,38 +3283,41 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3267,32 +3329,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J5"/>
+  <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="36.375" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -3304,38 +3367,55 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3349,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3358,13 +3438,13 @@
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -3381,32 +3461,38 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="81">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -729,6 +729,16 @@
     <t>エラーメッセージ表示：エラーが発生したためアカウント登録できません。</t>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角カタカナを入力</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -813,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +834,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K121"/>
+  <dimension ref="B1:K130"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H85" sqref="H84:H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2435,11 +2448,16 @@
         <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
       </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
@@ -2452,11 +2470,16 @@
         <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
       </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
@@ -2469,11 +2492,16 @@
         <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
       </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
@@ -2486,11 +2514,16 @@
         <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F79" t="s">
         <v>18</v>
       </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
@@ -2503,11 +2536,16 @@
         <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F80" t="s">
         <v>18</v>
       </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
@@ -2520,11 +2558,16 @@
         <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
@@ -2537,11 +2580,16 @@
         <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
@@ -2554,11 +2602,16 @@
         <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
@@ -2571,10 +2624,10 @@
         <v>21</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -2593,7 +2646,7 @@
         <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
@@ -2610,7 +2663,7 @@
         <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -2627,7 +2680,7 @@
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
         <v>18</v>
@@ -2644,7 +2697,7 @@
         <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
@@ -2661,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -2678,10 +2731,10 @@
         <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.15">
@@ -2695,10 +2748,10 @@
         <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.15">
@@ -2712,10 +2765,10 @@
         <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.15">
@@ -2729,10 +2782,10 @@
         <v>21</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -2751,7 +2804,7 @@
         <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -2768,7 +2821,7 @@
         <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
@@ -2785,7 +2838,7 @@
         <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -2802,7 +2855,7 @@
         <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
@@ -2819,7 +2872,7 @@
         <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -2836,10 +2889,10 @@
         <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.15">
@@ -2853,10 +2906,10 @@
         <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.15">
@@ -2870,7 +2923,7 @@
         <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
@@ -2887,7 +2940,7 @@
         <v>21</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>18</v>
@@ -2909,7 +2962,7 @@
         <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
@@ -2926,7 +2979,7 @@
         <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
@@ -2943,7 +2996,7 @@
         <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -2960,7 +3013,7 @@
         <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -2977,7 +3030,7 @@
         <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F107" t="s">
         <v>18</v>
@@ -2994,10 +3047,10 @@
         <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.15">
@@ -3011,10 +3064,10 @@
         <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F109" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.15">
@@ -3028,7 +3081,7 @@
         <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F110" t="s">
         <v>18</v>
@@ -3045,7 +3098,7 @@
         <v>21</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>18</v>
@@ -3057,184 +3110,342 @@
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D113" t="s">
         <v>21</v>
       </c>
       <c r="E113" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D114" t="s">
         <v>21</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D115" t="s">
         <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
         <v>21</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D118" t="s">
         <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
         <v>58</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C122" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" t="s">
+        <v>57</v>
+      </c>
+      <c r="F123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" t="s">
         <v>5</v>
       </c>
-      <c r="D119" t="s">
-        <v>21</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" t="s">
         <v>57</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F128" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
         <v>58</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C129" t="s">
         <v>53</v>
       </c>
-      <c r="D120" t="s">
-        <v>21</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" t="s">
         <v>57</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F129" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B121" s="1" t="s">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B130" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3429,7 +3640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php " sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="110">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認者</t>
     <rPh sb="0" eb="3">
       <t>カクニンシャ</t>
@@ -110,10 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力エラー：指定された形式で入力してください。</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -169,26 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力内容の保持</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト対象ページのURLを入力・アクセス</t>
-    <rPh sb="3" eb="5">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト対象ページ：http://localhost/アカウント管理/regist.php?</t>
     <rPh sb="3" eb="5">
       <t>タイショウ</t>
@@ -238,26 +210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>②→③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力内容がそのまま残り、エラー表示されない</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>漢字を入力</t>
     <rPh sb="0" eb="2">
       <t>カンジ</t>
@@ -316,82 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト対象ページへアクセス</t>
-    <rPh sb="3" eb="5">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクセス時の仕様確認</t>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクセス時の仕様確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBへの登録</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBに内容が登録されない</t>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Apacheオフにして登録</t>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mysqlオフにして登録</t>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラー表示：ページが開けない</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ表示：エラーが発生したためアカウント登録できません。</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー表示なし</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
@@ -861,6 +737,322 @@
       <t>ツギ</t>
     </rPh>
     <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示確認</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●で表示されている</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録完了しました。」が表示される</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLがonの状態でアクセスする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLがoffの状態でアクセスする</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録できません。」が赤字で表示される</t>
+    <rPh sb="26" eb="28">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①→②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①の全項目をエラーが発生しない内容で入力し「確認する」を押下</t>
+    <rPh sb="2" eb="3">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②へ項目ごとに入力した内容が反映される</t>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②→①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「戻る」ボタンを押下する</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した内容が保存された状態で①に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②→③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLがonの状態で「登録する」ボタンを押下する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②→③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録できません。」が赤字で表示され、DBに内容が保存される</t>
+    <rPh sb="37" eb="39">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録完了しました。」が表示され、DB（DB名：tt　テーブル名：regist）に内容が保存される</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③→①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TOPページに戻る」ボタンを押下する</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①へ遷移する</t>
+    <rPh sb="2" eb="4">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1207,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -1224,18 +1416,18 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -1247,764 +1439,764 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
         <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2016,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J5"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2034,15 +2226,15 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -2054,41 +2246,148 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2100,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2118,15 +2417,15 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -2138,55 +2437,44 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2198,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2215,7 +2503,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -2232,38 +2520,71 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="115">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -1002,41 +1002,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「エラーが発生したためアカウント登録できません。」が赤字で表示され、DBに内容が保存される</t>
-    <rPh sb="37" eb="39">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「登録完了しました。」が表示され、DB（DB名：tt　テーブル名：regist）に内容が保存される</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>③→①</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1055,6 +1020,91 @@
     <rPh sb="2" eb="4">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLがoｆｆの状態で「登録する」ボタンを押下する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録完了しました。」が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録できません。」が赤字で表示され、DBに内容が保存されない</t>
+    <rPh sb="37" eb="39">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに②アクセス時の日時が保存される（カラム名：registered_time）</t>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに削除フラグが「0」で保存される（カラム名：delete_flag）</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに入力内容が保存される</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB（DB名：tt　テーブル名：regist）入力内容　対応カラム
+名前（姓）→family_name
+名前（名）→last_name
+カナ（姓）→family_name_kana
+カナ（名）→last_name_kana
+メールアドレス→mail
+パスワード→password
+性別→gender
+郵便番号→postal_code
+住所（都道府県）→prefecture
+住所（市区町村）→address_1
+住所（番地）→address_2
+アカウント権限→authority</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1087,7 +1137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1104,17 +1154,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2486,18 +2554,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I8"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="49.125" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="57.75" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2562,29 +2630,67 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" t="s">
-        <v>105</v>
+      <c r="D7" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
+    </row>
+    <row r="13" spans="2:9" s="4" customFormat="1" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="136">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -559,26 +559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11文字以降表示されない</t>
-    <rPh sb="2" eb="6">
-      <t>モジイコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1０1文字以降表示されない</t>
-    <rPh sb="3" eb="7">
-      <t>モジイコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１０文字以上入力</t>
     <rPh sb="2" eb="6">
       <t>モジイジョウ</t>
@@ -589,16 +569,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1０１文字以降表示されない</t>
-    <rPh sb="3" eb="7">
-      <t>モジイコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1００文字以上入力</t>
     <rPh sb="3" eb="7">
       <t>モジイジョウ</t>
@@ -835,26 +805,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>内容が表示されている</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示確認</t>
     <rPh sb="0" eb="4">
       <t>ヒョウジカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●で表示されている</t>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1105,6 +1058,215 @@
 住所（市区町村）→address_1
 住所（番地）→address_2
 アカウント権限→authority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+  </si>
+  <si>
+    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Please enter no more than 100 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Please enter no more than 100 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目チェック</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトで「男」が選択されている</t>
+    <rPh sb="7" eb="8">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根上</t>
+    <rPh sb="0" eb="2">
+      <t>ネガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>windows、chrome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11文字以降入力されない</t>
+  </si>
+  <si>
+    <t>11文字以降入力されない</t>
+    <rPh sb="2" eb="6">
+      <t>モジイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101文字以降入力されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101文字以降入力されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字の場合、101文字目以降入力されない</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>モジメイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字の場合、11文字目以降入力されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字8文字以上を入力</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8文字目以降入力されない</t>
+    <rPh sb="1" eb="4">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Please enter no more than 7 caharacters.」と表示され、エンターを押すと8文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字の場合、8文字目以降入力されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で入力した内容が表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で入力した内容が●で表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根上</t>
+    <rPh sb="0" eb="2">
+      <t>ネガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>windows、chrome</t>
+  </si>
+  <si>
+    <t>DBに削除フラグが「1」で保存される（カラム名：delete_flag）</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1169,7 +1331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,6 +1345,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K47"/>
+  <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1477,9 +1642,11 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="43.5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="5" max="5" width="66" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
+    <col min="7" max="7" width="79.75" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
@@ -1535,6 +1702,18 @@
       <c r="F4" t="s">
         <v>30</v>
       </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
@@ -1552,6 +1731,18 @@
       <c r="F5" t="s">
         <v>30</v>
       </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
@@ -1569,6 +1760,18 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
@@ -1584,7 +1787,19 @@
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -1603,6 +1818,18 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
@@ -1620,6 +1847,18 @@
       <c r="F9" t="s">
         <v>30</v>
       </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
@@ -1637,6 +1876,18 @@
       <c r="F10" t="s">
         <v>33</v>
       </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
@@ -1652,7 +1903,19 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -1671,6 +1934,18 @@
       <c r="F12" t="s">
         <v>30</v>
       </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -1688,6 +1963,18 @@
       <c r="F13" t="s">
         <v>24</v>
       </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
@@ -1703,7 +1990,19 @@
         <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -1722,6 +2021,18 @@
       <c r="F15" t="s">
         <v>30</v>
       </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
@@ -1739,8 +2050,20 @@
       <c r="F16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -1754,10 +2077,22 @@
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -1773,8 +2108,20 @@
       <c r="F18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -1790,8 +2137,20 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1802,13 +2161,28 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1824,8 +2198,20 @@
       <c r="F21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -1841,8 +2227,20 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -1853,30 +2251,57 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1887,13 +2312,25 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1904,81 +2341,144 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J28" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="G30" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -1989,13 +2489,25 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>10</v>
       </c>
@@ -2006,13 +2518,25 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2023,13 +2547,25 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -2040,13 +2576,25 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>10</v>
       </c>
@@ -2057,47 +2605,83 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="G37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2108,13 +2692,25 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2125,13 +2721,25 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>10</v>
       </c>
@@ -2142,13 +2750,25 @@
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -2159,13 +2779,25 @@
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -2176,81 +2808,141 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
         <v>59</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C46" t="s">
         <v>62</v>
       </c>
-      <c r="E43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>49</v>
       </c>
@@ -2261,10 +2953,80 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J49" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2278,18 +3040,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="36.375" customWidth="1"/>
-    <col min="5" max="5" width="37.625" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="49.875" customWidth="1"/>
+    <col min="6" max="6" width="49.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
@@ -2328,134 +3092,278 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2469,18 +3377,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="36.375" customWidth="1"/>
-    <col min="5" max="5" width="36.875" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="6" max="6" width="57.875" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
@@ -2519,30 +3429,54 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45167</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2556,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2565,8 +3499,10 @@
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="57.75" customWidth="1"/>
-    <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="77.625" customWidth="1"/>
+    <col min="5" max="5" width="78.125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
@@ -2602,95 +3538,191 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="4" customFormat="1" ht="202.5" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -1045,7 +1045,217 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DB（DB名：tt　テーブル名：regist）入力内容　対応カラム
+    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+  </si>
+  <si>
+    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Please enter no more than 100 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Please enter no more than 100 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目チェック</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトで「男」が選択されている</t>
+    <rPh sb="7" eb="8">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根上</t>
+    <rPh sb="0" eb="2">
+      <t>ネガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>windows、chrome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11文字以降入力されない</t>
+  </si>
+  <si>
+    <t>11文字以降入力されない</t>
+    <rPh sb="2" eb="6">
+      <t>モジイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101文字以降入力されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101文字以降入力されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字の場合、101文字目以降入力されない</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>モジメイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字の場合、11文字目以降入力されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字8文字以上を入力</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8文字目以降入力されない</t>
+    <rPh sb="1" eb="4">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Please enter no more than 7 caharacters.」と表示され、エンターを押すと8文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字の場合、8文字目以降入力されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で入力した内容が表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で入力した内容が●で表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根上</t>
+    <rPh sb="0" eb="2">
+      <t>ネガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>windows、chrome</t>
+  </si>
+  <si>
+    <t>DBに削除フラグが「1」で保存される（カラム名：delete_flag）</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyAdmin：http://localhost/phpmyadmin/index.php?route=/sql&amp;pos=0&amp;db=tt&amp;table=regist
+DB（DB名：tt　テーブル名：regist）入力内容　対応カラム
 名前（姓）→family_name
 名前（名）→last_name
 カナ（姓）→family_name_kana
@@ -1058,215 +1268,6 @@
 住所（市区町村）→address_1
 住所（番地）→address_2
 アカウント権限→authority</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
-  </si>
-  <si>
-    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>モジメ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Please enter no more than 100 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Please enter no more than 100 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目チェック</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デフォルトで「男」が選択されている</t>
-    <rPh sb="7" eb="8">
-      <t>オトコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>根上</t>
-    <rPh sb="0" eb="2">
-      <t>ネガミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>windows、chrome</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラジオ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11文字以降入力されない</t>
-  </si>
-  <si>
-    <t>11文字以降入力されない</t>
-    <rPh sb="2" eb="6">
-      <t>モジイコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>101文字以降入力されない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>101文字以降入力されない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数字の場合、101文字目以降入力されない</t>
-    <rPh sb="0" eb="5">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="17">
-      <t>モジメイコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数字の場合、11文字目以降入力されない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角数字8文字以上を入力</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8文字目以降入力されない</t>
-    <rPh sb="1" eb="4">
-      <t>モジメ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Please enter no more than 7 caharacters.」と表示され、エンターを押すと8文字目以降が削除される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数字の場合、8文字目以降入力されない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント登録画面」で入力した内容が表示されている</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント登録画面」で入力した内容が●で表示されている</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>根上</t>
-    <rPh sb="0" eb="2">
-      <t>ネガミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>windows、chrome</t>
-  </si>
-  <si>
-    <t>DBに削除フラグが「1」で保存される（カラム名：delete_flag）</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1632,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1706,13 +1707,13 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="5">
         <v>45160</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
@@ -1735,13 +1736,13 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="5">
         <v>45160</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -1764,13 +1765,13 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="5">
         <v>45160</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -1787,19 +1788,19 @@
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="5">
         <v>45160</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -1822,13 +1823,13 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I8" s="5">
         <v>45160</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -1851,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I9" s="5">
         <v>45160</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -1880,13 +1881,13 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10" s="5">
         <v>45160</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -1903,19 +1904,19 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I11" s="5">
         <v>45160</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -1938,13 +1939,13 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" s="5">
         <v>45160</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -1967,13 +1968,13 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I13" s="5">
         <v>45160</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -1990,19 +1991,19 @@
         <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I14" s="5">
         <v>45160</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -2025,13 +2026,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I15" s="5">
         <v>45160</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
@@ -2054,13 +2055,13 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="5">
         <v>45160</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -2077,19 +2078,19 @@
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I17" s="5">
         <v>45160</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
@@ -2112,13 +2113,13 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I18" s="5">
         <v>45160</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -2141,13 +2142,13 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19" s="5">
         <v>45160</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
@@ -2164,22 +2165,22 @@
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I20" s="5">
         <v>45160</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -2202,13 +2203,13 @@
         <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I21" s="5">
         <v>45160</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
@@ -2231,13 +2232,13 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I22" s="5">
         <v>45160</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
@@ -2254,51 +2255,51 @@
         <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I23" s="5">
         <v>45160</v>
       </c>
       <c r="J23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
       </c>
       <c r="E24" t="s">
         <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I24" s="5">
         <v>45160</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -2321,13 +2322,13 @@
         <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" s="5">
         <v>45160</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -2350,13 +2351,13 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I26" s="5">
         <v>45160</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
@@ -2379,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="5">
         <v>45160</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
@@ -2399,25 +2400,25 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
         <v>126</v>
       </c>
-      <c r="F28" t="s">
-        <v>127</v>
-      </c>
       <c r="G28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" t="s">
         <v>129</v>
-      </c>
-      <c r="H28" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="5">
-        <v>45160</v>
-      </c>
-      <c r="J28" t="s">
-        <v>118</v>
-      </c>
-      <c r="K28" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
@@ -2440,13 +2441,13 @@
         <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I29" s="5">
         <v>45160</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -2469,13 +2470,13 @@
         <v>61</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I30" s="5">
         <v>45160</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -2498,13 +2499,13 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I31" s="5">
         <v>45160</v>
       </c>
       <c r="J31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -2527,13 +2528,13 @@
         <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I32" s="5">
         <v>45160</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
@@ -2556,13 +2557,13 @@
         <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I33" s="5">
         <v>45160</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
@@ -2585,13 +2586,13 @@
         <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I34" s="5">
         <v>45160</v>
       </c>
       <c r="J34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -2614,13 +2615,13 @@
         <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I35" s="5">
         <v>45160</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
@@ -2643,13 +2644,13 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="5">
         <v>45160</v>
       </c>
       <c r="J36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
@@ -2666,19 +2667,19 @@
         <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="5">
         <v>45160</v>
       </c>
       <c r="J37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
@@ -2701,13 +2702,13 @@
         <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="5">
         <v>45160</v>
       </c>
       <c r="J38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
@@ -2730,13 +2731,13 @@
         <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="5">
         <v>45160</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
@@ -2759,13 +2760,13 @@
         <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I40" s="5">
         <v>45160</v>
       </c>
       <c r="J40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
@@ -2788,13 +2789,13 @@
         <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I41" s="5">
         <v>45160</v>
       </c>
       <c r="J41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
@@ -2817,13 +2818,13 @@
         <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I42" s="5">
         <v>45160</v>
       </c>
       <c r="J42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
@@ -2846,13 +2847,13 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I43" s="5">
         <v>45160</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
@@ -2869,19 +2870,19 @@
         <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I44" s="5">
         <v>45160</v>
       </c>
       <c r="J44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
@@ -2904,13 +2905,13 @@
         <v>65</v>
       </c>
       <c r="H45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I45" s="5">
         <v>45160</v>
       </c>
       <c r="J45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
@@ -2933,13 +2934,13 @@
         <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I46" s="5">
         <v>45160</v>
       </c>
       <c r="J46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
@@ -2962,13 +2963,13 @@
         <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I47" s="5">
         <v>45160</v>
       </c>
       <c r="J47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
@@ -2991,13 +2992,13 @@
         <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I48" s="5">
         <v>45160</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
@@ -3020,13 +3021,13 @@
         <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I49" s="5">
         <v>45160</v>
       </c>
       <c r="J49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3098,19 +3099,19 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -3121,19 +3122,19 @@
         <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -3144,19 +3145,19 @@
         <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="5">
         <v>45167</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -3167,19 +3168,19 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="5">
         <v>45167</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -3190,19 +3191,19 @@
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="5">
         <v>45167</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -3213,19 +3214,19 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
         <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" t="s">
-        <v>133</v>
       </c>
       <c r="H9" s="5">
         <v>45167</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -3236,19 +3237,19 @@
         <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="5">
         <v>45167</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -3259,19 +3260,19 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="5">
         <v>45167</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -3282,19 +3283,19 @@
         <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="5">
         <v>45167</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -3305,19 +3306,19 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="5">
         <v>45167</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -3328,19 +3329,19 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="5">
         <v>45167</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
@@ -3351,19 +3352,19 @@
         <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="5">
         <v>45167</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3377,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3444,13 +3445,13 @@
         <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -3470,13 +3471,13 @@
         <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3490,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3550,13 +3551,13 @@
         <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="5">
         <v>45167</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -3573,13 +3574,13 @@
         <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" s="5">
         <v>45167</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
@@ -3596,13 +3597,13 @@
         <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="5">
         <v>45167</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -3619,16 +3620,16 @@
         <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="5">
         <v>45167</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>97</v>
       </c>
@@ -3642,16 +3643,16 @@
         <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="5">
         <v>45167</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>97</v>
       </c>
@@ -3662,16 +3663,16 @@
         <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="5">
         <v>45167</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -3688,13 +3689,13 @@
         <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="5">
         <v>45167</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -3711,18 +3712,18 @@
         <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="5">
         <v>45167</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" s="4" customFormat="1" ht="202.5" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="4" customFormat="1" ht="256.5" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php " sheetId="7" r:id="rId1"/>
     <sheet name="regist_confirm.php" sheetId="3" r:id="rId2"/>
     <sheet name="regist_complete.php" sheetId="6" r:id="rId3"/>
-    <sheet name="結合テスト" sheetId="5" r:id="rId4"/>
+    <sheet name="list.php" sheetId="8" r:id="rId4"/>
+    <sheet name="結合テスト" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="162">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -191,25 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※「アカウント登録画面」を①、「アカウント登録確認画面」を②、「アカウント登録完了画面」を③とする。</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="37" eb="43">
-      <t>トウロクカンリョウガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>漢字を入力</t>
     <rPh sb="0" eb="2">
       <t>カンジ</t>
@@ -1254,8 +1236,128 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの登録内容が表示されている</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンが表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの登録内容が表示されている（年月日のみ）</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの登録内容が表示されている（パラメータが0の場合は「有効」、1の場合は「無効」と表示）</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの登録内容が表示されている（パラメータが0の場合は「一般」、1の場合は「管理者」と表示）</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの登録内容が表示されている（パラメータが0の場合は「男」、1の場合は「女」と表示）</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示順</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idが降順で表示されている</t>
+    <rPh sb="3" eb="5">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>phpMyAdmin：http://localhost/phpmyadmin/index.php?route=/sql&amp;pos=0&amp;db=tt&amp;table=regist
 DB（DB名：tt　テーブル名：regist）入力内容　対応カラム
+id→id
 名前（姓）→family_name
 名前（名）→last_name
 カナ（姓）→family_name_kana
@@ -1270,12 +1372,121 @@
 アカウント権限→authority</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>表示確認</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューに「アカウント一覧」が表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「アカウント登録画面」を①、「アカウント登録確認画面」を②、「アカウント登録完了画面」を③、「アカウント一覧」を④、「delete.php」を⑤、「update.php」を⑥とする。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="37" eb="43">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①→④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧」を押下する</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④→⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④→⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新」ボタンを押下する</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除」ボタンを押下する</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1288,6 +1499,14 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1332,7 +1551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,6 +1568,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1631,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K49"/>
+  <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="G35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1692,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="5">
         <v>45160</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
@@ -1721,28 +1943,28 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="5">
         <v>45160</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -1750,13 +1972,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1765,13 +1987,13 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="5">
         <v>45160</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -1779,28 +2001,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="5">
         <v>45160</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -1808,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="5">
         <v>45160</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -1837,28 +2059,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" s="5">
         <v>45160</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -1866,28 +2088,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" s="5">
         <v>45160</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -1895,28 +2117,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" s="5">
         <v>45160</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -1924,28 +2146,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" s="5">
         <v>45160</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -1953,28 +2175,28 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="5">
         <v>45160</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -1982,28 +2204,28 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="5">
         <v>45160</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -2011,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="5">
         <v>45160</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
@@ -2040,28 +2262,28 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16" s="5">
         <v>45160</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -2069,28 +2291,28 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17" s="5">
         <v>45160</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
@@ -2098,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" s="5">
         <v>45160</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -2127,13 +2349,13 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -2142,13 +2364,13 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="5">
         <v>45160</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
@@ -2156,31 +2378,31 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" s="5">
         <v>45160</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -2194,22 +2416,22 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="5">
         <v>45160</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
@@ -2223,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -2232,13 +2454,13 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I22" s="5">
         <v>45160</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
@@ -2252,54 +2474,54 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="5">
         <v>45160</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
         <v>113</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
         <v>114</v>
       </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
-        <v>115</v>
-      </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="5">
         <v>45160</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -2313,22 +2535,22 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="5">
         <v>45160</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -2342,22 +2564,22 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="5">
         <v>45160</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
@@ -2371,22 +2593,22 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="5">
         <v>45160</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
@@ -2400,83 +2622,83 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
         <v>125</v>
       </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
       <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" t="s">
         <v>128</v>
-      </c>
-      <c r="H28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="5">
-        <v>45160</v>
-      </c>
-      <c r="J28" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
       <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
         <v>67</v>
       </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I29" s="5">
         <v>45160</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>59</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="5">
         <v>45160</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -2484,28 +2706,28 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="5">
         <v>45160</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -2513,28 +2735,28 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="5">
         <v>45160</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
@@ -2542,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="5">
         <v>45160</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
@@ -2571,28 +2793,28 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="5">
         <v>45160</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -2600,28 +2822,28 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I35" s="5">
         <v>45160</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
@@ -2629,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="5">
         <v>45160</v>
       </c>
       <c r="J36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
@@ -2658,28 +2880,28 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="5">
         <v>45160</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
@@ -2687,28 +2909,28 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="5">
         <v>45160</v>
       </c>
       <c r="J38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
@@ -2716,28 +2938,28 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="5">
         <v>45160</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
@@ -2745,28 +2967,28 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I40" s="5">
         <v>45160</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
@@ -2774,28 +2996,28 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I41" s="5">
         <v>45160</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
@@ -2803,28 +3025,28 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I42" s="5">
         <v>45160</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
@@ -2832,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I43" s="5">
         <v>45160</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
@@ -2861,173 +3083,196 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I44" s="5">
         <v>45160</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I45" s="5">
         <v>45160</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>62</v>
       </c>
-      <c r="D46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>63</v>
       </c>
-      <c r="F46" t="s">
-        <v>64</v>
-      </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I46" s="5">
         <v>45160</v>
       </c>
       <c r="J46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
         <v>49</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>50</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>51</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>52</v>
       </c>
-      <c r="F47" t="s">
-        <v>53</v>
-      </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I47" s="5">
         <v>45160</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>50</v>
       </c>
-      <c r="D48" t="s">
-        <v>51</v>
-      </c>
       <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s">
         <v>69</v>
       </c>
-      <c r="F48" t="s">
-        <v>70</v>
-      </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I48" s="5">
         <v>45160</v>
       </c>
       <c r="J48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>50</v>
       </c>
-      <c r="D49" t="s">
-        <v>51</v>
-      </c>
       <c r="E49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" t="s">
         <v>71</v>
       </c>
-      <c r="F49" t="s">
-        <v>72</v>
-      </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I49" s="5">
         <v>45160</v>
       </c>
       <c r="J49" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" s="5">
+        <v>45195</v>
+      </c>
+      <c r="J50" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3041,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3093,278 +3338,278 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="5">
         <v>45167</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="5">
         <v>45167</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="5">
         <v>45167</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" t="s">
         <v>131</v>
-      </c>
-      <c r="F9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" t="s">
-        <v>132</v>
       </c>
       <c r="H9" s="5">
         <v>45167</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="5">
         <v>45167</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="5">
         <v>45167</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" s="5">
         <v>45167</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H13" s="5">
         <v>45167</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="5">
         <v>45167</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="5">
         <v>45167</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3430,54 +3675,54 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
       <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3489,10 +3734,394 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I13"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="75.75" customWidth="1"/>
+    <col min="6" max="6" width="76.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45195</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3508,7 +4137,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -3539,191 +4168,260 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="5">
         <v>45167</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" s="5">
         <v>45167</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
         <v>97</v>
       </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="5">
         <v>45167</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="5">
         <v>45167</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="5">
         <v>45167</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="5">
         <v>45167</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="5">
         <v>45167</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
         <v>100</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>101</v>
       </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="5">
         <v>45167</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" s="4" customFormat="1" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45195</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45195</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45195</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php " sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="162">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -3736,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4021,9 +4021,6 @@
       <c r="E13" t="s">
         <v>142</v>
       </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
       <c r="G13" t="s">
         <v>115</v>
       </c>
@@ -4120,8 +4117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php " sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="176">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -934,10 +934,6 @@
   </si>
   <si>
     <t>②→③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③→①</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1479,6 +1475,93 @@
     <rPh sb="2" eb="4">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューに「アカウント登録」が表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューに「アカウント登録」が表示されていない</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント登録」を押下する</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/regist.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/regist_confirm.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/regist_complete.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/regist_complete.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/list.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページに遷移する</t>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③→TOPページ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1853,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K50"/>
+  <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="G35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1929,13 +2012,13 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="5">
         <v>45160</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
@@ -1958,13 +2041,13 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="5">
         <v>45160</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -1987,13 +2070,13 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="5">
         <v>45160</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -2010,19 +2093,19 @@
         <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="5">
         <v>45160</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -2045,13 +2128,13 @@
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" s="5">
         <v>45160</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -2074,13 +2157,13 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" s="5">
         <v>45160</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -2103,13 +2186,13 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" s="5">
         <v>45160</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -2126,19 +2209,19 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I11" s="5">
         <v>45160</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -2161,13 +2244,13 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I12" s="5">
         <v>45160</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -2190,13 +2273,13 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I13" s="5">
         <v>45160</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -2213,19 +2296,19 @@
         <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" s="5">
         <v>45160</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -2248,13 +2331,13 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I15" s="5">
         <v>45160</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
@@ -2277,13 +2360,13 @@
         <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I16" s="5">
         <v>45160</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -2300,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I17" s="5">
         <v>45160</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
@@ -2335,13 +2418,13 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I18" s="5">
         <v>45160</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -2364,13 +2447,13 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I19" s="5">
         <v>45160</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
@@ -2387,22 +2470,22 @@
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I20" s="5">
         <v>45160</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -2425,13 +2508,13 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I21" s="5">
         <v>45160</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
@@ -2454,13 +2537,13 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I22" s="5">
         <v>45160</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
@@ -2477,51 +2560,51 @@
         <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I23" s="5">
         <v>45160</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
         <v>112</v>
-      </c>
-      <c r="D24" t="s">
-        <v>113</v>
       </c>
       <c r="E24" t="s">
         <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I24" s="5">
         <v>45160</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -2544,13 +2627,13 @@
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I25" s="5">
         <v>45160</v>
       </c>
       <c r="J25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -2573,13 +2656,13 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" s="5">
         <v>45160</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
@@ -2602,13 +2685,13 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I27" s="5">
         <v>45160</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
@@ -2622,25 +2705,25 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
         <v>124</v>
       </c>
-      <c r="F28" t="s">
-        <v>125</v>
-      </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I28" s="5">
         <v>45160</v>
       </c>
       <c r="J28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
@@ -2663,13 +2746,13 @@
         <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="5">
         <v>45160</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -2692,13 +2775,13 @@
         <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I30" s="5">
         <v>45160</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -2721,13 +2804,13 @@
         <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I31" s="5">
         <v>45160</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -2750,13 +2833,13 @@
         <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I32" s="5">
         <v>45160</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
@@ -2779,13 +2862,13 @@
         <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I33" s="5">
         <v>45160</v>
       </c>
       <c r="J33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
@@ -2808,13 +2891,13 @@
         <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I34" s="5">
         <v>45160</v>
       </c>
       <c r="J34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -2837,13 +2920,13 @@
         <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I35" s="5">
         <v>45160</v>
       </c>
       <c r="J35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
@@ -2866,13 +2949,13 @@
         <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" s="5">
         <v>45160</v>
       </c>
       <c r="J36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
@@ -2889,19 +2972,19 @@
         <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="5">
         <v>45160</v>
       </c>
       <c r="J37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
@@ -2924,13 +3007,13 @@
         <v>29</v>
       </c>
       <c r="H38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" s="5">
         <v>45160</v>
       </c>
       <c r="J38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
@@ -2953,13 +3036,13 @@
         <v>29</v>
       </c>
       <c r="H39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I39" s="5">
         <v>45160</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
@@ -2982,13 +3065,13 @@
         <v>29</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I40" s="5">
         <v>45160</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
@@ -3011,13 +3094,13 @@
         <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I41" s="5">
         <v>45160</v>
       </c>
       <c r="J41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
@@ -3040,13 +3123,13 @@
         <v>29</v>
       </c>
       <c r="H42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I42" s="5">
         <v>45160</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
@@ -3069,13 +3152,13 @@
         <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I43" s="5">
         <v>45160</v>
       </c>
       <c r="J43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
@@ -3092,19 +3175,19 @@
         <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I44" s="5">
         <v>45160</v>
       </c>
       <c r="J44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
@@ -3127,13 +3210,13 @@
         <v>64</v>
       </c>
       <c r="H45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I45" s="5">
         <v>45160</v>
       </c>
       <c r="J45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
@@ -3156,13 +3239,13 @@
         <v>63</v>
       </c>
       <c r="H46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I46" s="5">
         <v>45160</v>
       </c>
       <c r="J46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
@@ -3185,13 +3268,13 @@
         <v>52</v>
       </c>
       <c r="H47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I47" s="5">
         <v>45160</v>
       </c>
       <c r="J47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
@@ -3214,13 +3297,13 @@
         <v>69</v>
       </c>
       <c r="H48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I48" s="5">
         <v>45160</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
@@ -3243,36 +3326,120 @@
         <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I49" s="5">
         <v>45160</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
         <v>149</v>
       </c>
       <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
         <v>150</v>
       </c>
-      <c r="F50" t="s">
-        <v>151</v>
-      </c>
       <c r="G50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I50" s="5">
         <v>45195</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="5">
+        <v>45203</v>
+      </c>
+      <c r="J51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" s="5">
+        <v>45203</v>
+      </c>
+      <c r="J52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" t="s">
+        <v>168</v>
+      </c>
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="5">
+        <v>45203</v>
+      </c>
+      <c r="J53" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3284,10 +3451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+      <selection activeCell="I16" sqref="B16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3344,19 +3511,19 @@
         <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -3367,19 +3534,19 @@
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -3390,19 +3557,19 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="5">
         <v>45167</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -3413,19 +3580,19 @@
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="5">
         <v>45167</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -3436,19 +3603,19 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="5">
         <v>45167</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -3459,19 +3626,19 @@
         <v>77</v>
       </c>
       <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
         <v>130</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" t="s">
-        <v>131</v>
       </c>
       <c r="H9" s="5">
         <v>45167</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -3482,19 +3649,19 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="5">
         <v>45167</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -3505,19 +3672,19 @@
         <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="5">
         <v>45167</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -3528,19 +3695,19 @@
         <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="5">
         <v>45167</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -3551,19 +3718,19 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="5">
         <v>45167</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -3574,19 +3741,19 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="5">
         <v>45167</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
@@ -3597,19 +3764,42 @@
         <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="5">
         <v>45167</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45203</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3621,10 +3811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J5"/>
+  <dimension ref="B1:J6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3690,13 +3880,13 @@
         <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -3716,13 +3906,36 @@
         <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3734,10 +3947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3786,22 +3999,22 @@
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="5">
         <v>45195</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
@@ -3812,19 +4025,19 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="5">
         <v>45195</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -3835,19 +4048,19 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="5">
         <v>45195</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -3858,19 +4071,19 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" s="5">
         <v>45195</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -3881,19 +4094,19 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" s="5">
         <v>45195</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -3904,19 +4117,19 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="5">
         <v>45195</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -3927,19 +4140,19 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="5">
         <v>45195</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -3950,19 +4163,19 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="5">
         <v>45195</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -3970,22 +4183,22 @@
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="5">
         <v>45195</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -3993,22 +4206,22 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="5">
         <v>45195</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -4016,19 +4229,19 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13" s="5">
         <v>45195</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -4036,22 +4249,22 @@
         <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" s="5">
         <v>45195</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
@@ -4059,22 +4272,22 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" s="5">
         <v>45195</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
@@ -4082,28 +4295,54 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
         <v>146</v>
       </c>
-      <c r="E16" t="s">
-        <v>147</v>
-      </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="5">
         <v>45195</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
-      <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45203</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:10" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
+      <c r="C19" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4117,7 +4356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4134,7 +4373,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -4177,13 +4416,13 @@
         <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="5">
         <v>45167</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -4200,13 +4439,13 @@
         <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="5">
         <v>45167</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
@@ -4217,19 +4456,19 @@
         <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="5">
         <v>45167</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -4240,19 +4479,19 @@
         <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="5">
         <v>45167</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -4263,19 +4502,19 @@
         <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="5">
         <v>45167</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -4286,19 +4525,19 @@
         <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="5">
         <v>45167</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -4306,119 +4545,119 @@
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="5">
         <v>45167</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
         <v>99</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="5">
         <v>45167</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
         <v>153</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="5">
         <v>45195</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="5">
         <v>45195</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
         <v>157</v>
       </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="5">
         <v>45195</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php " sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="178">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -1026,33 +1026,6 @@
     <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
   </si>
   <si>
-    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>モジメ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Please enter no more than 100 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Please enter no more than 100 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
       <t>セイベツ</t>
@@ -1113,26 +1086,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角英数字の場合、101文字目以降入力されない</t>
-    <rPh sb="0" eb="5">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="17">
-      <t>モジメイコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数字の場合、11文字目以降入力されない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>半角数字8文字以上を入力</t>
     <rPh sb="0" eb="4">
       <t>ハンカクスウジ</t>
@@ -1162,18 +1115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Please enter no more than 7 caharacters.」と表示され、エンターを押すと8文字目以降が削除される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数字の場合、8文字目以降入力されない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「アカウント登録画面」で入力した内容が表示されている</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -1220,16 +1161,6 @@
   </si>
   <si>
     <t>windows、chrome</t>
-  </si>
-  <si>
-    <t>DBに削除フラグが「1」で保存される（カラム名：delete_flag）</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>id</t>
@@ -1546,10 +1477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リンクが「任意のURL/regist_complete.php」になっている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リンクが「任意のURL/list.php」になっている</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1562,6 +1489,77 @@
   </si>
   <si>
     <t>③→TOPページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページを表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページを開く</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページを開く</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字の場合、101文字目以降入力されない
+「Please enter no more than 100 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>モジメイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字の場合、11文字目以降入力されない
+「Please enter no more than 10 caharacters.」と表示され、エンターを押すと11文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字の場合、8文字目以降入力されない
+「Please enter no more than 7 caharacters.」と表示され、エンターを押すと8文字目以降が削除される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1938,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:G53"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1950,9 +1948,10 @@
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="66" customWidth="1"/>
     <col min="6" max="6" width="44.75" customWidth="1"/>
-    <col min="7" max="7" width="79.75" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="134.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
@@ -2009,16 +2008,16 @@
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I4" s="5">
         <v>45160</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
@@ -2038,16 +2037,16 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I5" s="5">
         <v>45160</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -2067,16 +2066,16 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I6" s="5">
         <v>45160</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -2093,19 +2092,19 @@
         <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I7" s="5">
         <v>45160</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -2125,16 +2124,16 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I8" s="5">
         <v>45160</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -2154,16 +2153,16 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I9" s="5">
         <v>45160</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -2183,16 +2182,16 @@
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I10" s="5">
         <v>45160</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -2209,19 +2208,19 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I11" s="5">
         <v>45160</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -2241,16 +2240,16 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I12" s="5">
         <v>45160</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -2270,16 +2269,16 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I13" s="5">
         <v>45160</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -2296,19 +2295,19 @@
         <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I14" s="5">
         <v>45160</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -2328,16 +2327,16 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I15" s="5">
         <v>45160</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
@@ -2357,16 +2356,16 @@
         <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I16" s="5">
         <v>45160</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -2383,19 +2382,19 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I17" s="5">
         <v>45160</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
@@ -2415,16 +2414,16 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I18" s="5">
         <v>45160</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -2444,19 +2443,19 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I19" s="5">
         <v>45160</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2470,22 +2469,22 @@
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I20" s="5">
         <v>45160</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -2505,16 +2504,16 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I21" s="5">
         <v>45160</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
@@ -2534,19 +2533,19 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I22" s="5">
         <v>45160</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -2560,51 +2559,51 @@
         <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I23" s="5">
         <v>45160</v>
       </c>
       <c r="J23" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
         <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I24" s="5">
         <v>45160</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -2624,16 +2623,16 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I25" s="5">
         <v>45160</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -2653,16 +2652,16 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I26" s="5">
         <v>45160</v>
       </c>
       <c r="J26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
@@ -2682,19 +2681,19 @@
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I27" s="5">
         <v>45160</v>
       </c>
       <c r="J27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -2705,25 +2704,25 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I28" s="5">
         <v>45160</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" t="s">
-        <v>127</v>
+        <v>112</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
@@ -2743,16 +2742,16 @@
         <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I29" s="5">
         <v>45160</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -2772,16 +2771,16 @@
         <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I30" s="5">
         <v>45160</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -2801,16 +2800,16 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I31" s="5">
         <v>45160</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -2830,19 +2829,19 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I32" s="5">
         <v>45160</v>
       </c>
       <c r="J32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2859,19 +2858,19 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I33" s="5">
         <v>45160</v>
       </c>
       <c r="J33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -2888,19 +2887,19 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I34" s="5">
         <v>45160</v>
       </c>
       <c r="J34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>10</v>
       </c>
@@ -2917,19 +2916,19 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I35" s="5">
         <v>45160</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2946,19 +2945,19 @@
         <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I36" s="5">
         <v>45160</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -2972,22 +2971,25 @@
         <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I37" s="5">
         <v>45160</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="K37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -3004,19 +3006,19 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I38" s="5">
         <v>45160</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -3033,19 +3035,19 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I39" s="5">
         <v>45160</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>10</v>
       </c>
@@ -3062,19 +3064,19 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I40" s="5">
         <v>45160</v>
       </c>
       <c r="J40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -3091,19 +3093,19 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I41" s="5">
         <v>45160</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3120,19 +3122,19 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I42" s="5">
         <v>45160</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -3149,19 +3151,19 @@
         <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="H43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I43" s="5">
         <v>45160</v>
       </c>
       <c r="J43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>10</v>
       </c>
@@ -3175,22 +3177,22 @@
         <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="H44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I44" s="5">
         <v>45160</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>57</v>
       </c>
@@ -3201,25 +3203,25 @@
         <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="F45" t="s">
         <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I45" s="5">
         <v>45160</v>
       </c>
       <c r="J45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>57</v>
       </c>
@@ -3236,19 +3238,19 @@
         <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="H46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I46" s="5">
         <v>45160</v>
       </c>
       <c r="J46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>48</v>
       </c>
@@ -3265,19 +3267,19 @@
         <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="H47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I47" s="5">
         <v>45160</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>48</v>
       </c>
@@ -3294,19 +3296,19 @@
         <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I48" s="5">
         <v>45160</v>
       </c>
       <c r="J48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>48</v>
       </c>
@@ -3323,123 +3325,138 @@
         <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="H49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I49" s="5">
         <v>45160</v>
       </c>
       <c r="J49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
         <v>58</v>
       </c>
+      <c r="E50" t="s">
+        <v>171</v>
+      </c>
       <c r="F50" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G50" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I50" s="5">
         <v>45195</v>
       </c>
       <c r="J50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
         <v>58</v>
       </c>
+      <c r="E51" t="s">
+        <v>171</v>
+      </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G51" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I51" s="5">
         <v>45203</v>
       </c>
       <c r="J51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="K51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
         <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I52" s="5">
         <v>45203</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="K52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
       </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I53" s="5">
         <v>45203</v>
       </c>
       <c r="J53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3454,7 +3471,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="B16:I16"/>
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3464,7 +3481,7 @@
     <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="49.875" customWidth="1"/>
-    <col min="6" max="6" width="49.25" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" customWidth="1"/>
   </cols>
@@ -3510,20 +3527,23 @@
       <c r="C4" t="s">
         <v>72</v>
       </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -3533,20 +3553,23 @@
       <c r="C5" t="s">
         <v>73</v>
       </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -3556,20 +3579,23 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H6" s="5">
         <v>45167</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -3579,20 +3605,23 @@
       <c r="C7" t="s">
         <v>75</v>
       </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H7" s="5">
         <v>45167</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -3602,20 +3631,23 @@
       <c r="C8" t="s">
         <v>76</v>
       </c>
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H8" s="5">
         <v>45167</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -3625,20 +3657,23 @@
       <c r="C9" t="s">
         <v>77</v>
       </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H9" s="5">
         <v>45167</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -3648,20 +3683,23 @@
       <c r="C10" t="s">
         <v>78</v>
       </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H10" s="5">
         <v>45167</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -3671,20 +3709,23 @@
       <c r="C11" t="s">
         <v>79</v>
       </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H11" s="5">
         <v>45167</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -3694,20 +3735,23 @@
       <c r="C12" t="s">
         <v>80</v>
       </c>
+      <c r="D12" t="s">
+        <v>170</v>
+      </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H12" s="5">
         <v>45167</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -3717,20 +3761,23 @@
       <c r="C13" t="s">
         <v>81</v>
       </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H13" s="5">
         <v>45167</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -3740,20 +3787,23 @@
       <c r="C14" t="s">
         <v>82</v>
       </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H14" s="5">
         <v>45167</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
@@ -3763,20 +3813,23 @@
       <c r="C15" t="s">
         <v>83</v>
       </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H15" s="5">
         <v>45167</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
@@ -3784,22 +3837,25 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H16" s="5">
         <v>45203</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3813,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="B6:I6"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3824,7 +3880,7 @@
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="57.875" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
@@ -3877,16 +3933,16 @@
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -3903,16 +3959,16 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -3920,22 +3976,25 @@
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H6" s="5">
         <v>45203</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3949,7 +4008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -3958,9 +4017,9 @@
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="31.375" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="75.75" customWidth="1"/>
-    <col min="6" max="6" width="76.25" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
@@ -3999,22 +4058,25 @@
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H3" s="5">
         <v>45195</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
@@ -4024,20 +4086,23 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H4" s="5">
         <v>45195</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -4047,20 +4112,23 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H5" s="5">
         <v>45195</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -4070,20 +4138,23 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H6" s="5">
         <v>45195</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -4093,20 +4164,23 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H7" s="5">
         <v>45195</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -4116,20 +4190,23 @@
       <c r="C8" t="s">
         <v>76</v>
       </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H8" s="5">
         <v>45195</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -4139,20 +4216,23 @@
       <c r="C9" t="s">
         <v>78</v>
       </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H9" s="5">
         <v>45195</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -4162,20 +4242,23 @@
       <c r="C10" t="s">
         <v>61</v>
       </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H10" s="5">
         <v>45195</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -4183,22 +4266,25 @@
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H11" s="5">
         <v>45195</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -4206,22 +4292,25 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H12" s="5">
         <v>45195</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -4229,19 +4318,25 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H13" s="5">
         <v>45195</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -4249,22 +4344,25 @@
         <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H14" s="5">
         <v>45195</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
@@ -4272,22 +4370,25 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H15" s="5">
         <v>45195</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
@@ -4295,22 +4396,25 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H16" s="5">
         <v>45195</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
@@ -4318,31 +4422,34 @@
         <v>84</v>
       </c>
       <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
         <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H17" s="5">
         <v>45203</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:10" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
       <c r="C19" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4356,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4366,14 +4473,14 @@
     <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="77.625" customWidth="1"/>
-    <col min="5" max="5" width="78.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -4413,16 +4520,16 @@
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G4" s="5">
         <v>45167</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -4436,16 +4543,16 @@
         <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G5" s="5">
         <v>45167</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
@@ -4459,16 +4566,16 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G6" s="5">
         <v>45167</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -4481,17 +4588,17 @@
       <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>106</v>
+      <c r="E7" t="s">
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G7" s="5">
         <v>45167</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -4504,17 +4611,17 @@
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>104</v>
+      <c r="E8" t="s">
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G8" s="5">
         <v>45167</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -4527,17 +4634,17 @@
       <c r="D9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>132</v>
+      <c r="E9" t="s">
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G9" s="5">
         <v>45167</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -4551,113 +4658,116 @@
         <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G10" s="5">
         <v>45167</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
         <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G11" s="5">
         <v>45167</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G12" s="5">
         <v>45195</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G13" s="5">
         <v>45195</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G14" s="5">
         <v>45195</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -9,14 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php " sheetId="7" r:id="rId1"/>
     <sheet name="regist_confirm.php" sheetId="3" r:id="rId2"/>
     <sheet name="regist_complete.php" sheetId="6" r:id="rId3"/>
     <sheet name="list.php" sheetId="8" r:id="rId4"/>
-    <sheet name="結合テスト" sheetId="5" r:id="rId5"/>
+    <sheet name="delete.php" sheetId="11" r:id="rId5"/>
+    <sheet name="delete_confirm.php" sheetId="9" r:id="rId6"/>
+    <sheet name="delete_complete.php" sheetId="10" r:id="rId7"/>
+    <sheet name="update.php" sheetId="12" r:id="rId8"/>
+    <sheet name="update_confirm.php" sheetId="13" r:id="rId9"/>
+    <sheet name="update_complete.php" sheetId="14" r:id="rId10"/>
+    <sheet name="結合テスト" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="230">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -158,16 +164,6 @@
     <t>テスト項目</t>
     <rPh sb="3" eb="5">
       <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト対象ページ：http://localhost/アカウント管理/regist.php?</t>
-    <rPh sb="3" eb="5">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1324,28 +1320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※「アカウント登録画面」を①、「アカウント登録確認画面」を②、「アカウント登録完了画面」を③、「アカウント一覧」を④、「delete.php」を⑤、「update.php」を⑥とする。</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="37" eb="43">
-      <t>トウロクカンリョウガメン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①→④</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1368,10 +1342,6 @@
   </si>
   <si>
     <t>④→⑤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④→⑥</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1560,6 +1530,563 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「アカウント登録画面」を①、「アカウント登録確認画面」を②、「アカウント登録完了画面」を③、「アカウント一覧」を④、
+「delete.php」を⑤、「delete_confirm.php」を⑥「delete_complete.php」を⑦、
+「update.php」を⑧、「update_confirm.php」を⑨「update_complete.php」を⑩とする。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="37" eb="43">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyAdmin：http://localhost/phpmyadmin/index.php?route=/sql&amp;pos=0&amp;db=tt&amp;table=regist
+DB（DB名：tt　テーブル名：regist）入力内容　対応カラム
+id→id
+名前（姓）→family_name
+名前（名）→last_name
+カナ（姓）→family_name_kana
+カナ（名）→last_name_kana
+メールアドレス→mail
+パスワード→password
+性別→gender
+郵便番号→postal_code
+住所（都道府県）→prefecture
+住所（市区町村）→address_1
+住所（番地）→address_2
+アカウント権限→authority
+削除フラグ→dekete_flag
+登録日時→registerd_time
+更新日時→update_time</t>
+    <rPh sb="333" eb="335">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="351" eb="355">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="371" eb="375">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化された状態で●表示される</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの登録内容が表示されている（文字数分●で表示）</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/delete.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/delete_confirm.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「本当に削除してよろしいですか？」と画面中央に表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前に戻る</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除完了表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除完了しました。」が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/delete_complete.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント削除できません。」が赤字で表示される</t>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページに戻る</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/update.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの登録内容が表示されている（文字数分●で表示）</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの登録内容が選択されている</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「男」「女」のラジオボタンが表示されている</t>
+    <rPh sb="1" eb="2">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント更新画面」で入力した内容が表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/update_confirm.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新する</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新完了しました。」が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント更新できません。」が赤字で表示される</t>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクが「任意のURL/update_complete.php」になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認する」ボタンを押下する</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤→⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥→⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除する」ボタンを押下する</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLがonの状態で「削除する」ボタンを押下する</t>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除完了しました。」と表示され、削除フラグが「1」に更新される</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLがoffの状態で「削除する」ボタンを押下する</t>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント削除できません。」と赤字で表示され、DBが更新されない</t>
+    <rPh sb="26" eb="28">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥→⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンを押下する</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦→TOPページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④→⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧→⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧の全項目をエラーが発生しない内容で入力し「確認する」を押下</t>
+    <rPh sb="2" eb="3">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨へ項目ごとに入力した内容が反映される</t>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに⑥アクセス時の日時が保存される（カラム名：update_time）</t>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨→⑩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLがonの状態で「更新する」ボタンを押下する</t>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新完了しました。」と表示され、各項目の入力内容に更新される</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ニュウリョクナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに⑨アクセス時の日時が保存される（カラム名：update_time）</t>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLがoｆｆの状態で「更新する」ボタンを押下する</t>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨→⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した内容が保存された状態で⑧に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑩→TOPページ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1632,7 +2159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1653,6 +2180,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1934,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K53"/>
+  <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1954,41 +2490,65 @@
     <col min="11" max="11" width="134.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -1996,28 +2556,28 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" s="5">
         <v>45160</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
@@ -2025,28 +2585,28 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5" s="5">
         <v>45160</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -2054,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="5">
         <v>45160</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -2083,28 +2643,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="5">
         <v>45160</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -2112,28 +2672,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="5">
         <v>45160</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -2141,28 +2701,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="5">
         <v>45160</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -2170,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="5">
         <v>45160</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -2199,28 +2759,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="5">
         <v>45160</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -2228,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -2237,19 +2797,19 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I12" s="5">
         <v>45160</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -2257,28 +2817,28 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I13" s="5">
         <v>45160</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -2292,22 +2852,22 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" s="5">
         <v>45160</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -2315,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -2324,19 +2884,19 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I15" s="5">
         <v>45160</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
@@ -2344,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I16" s="5">
         <v>45160</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -2379,22 +2939,22 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I17" s="5">
         <v>45160</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
@@ -2402,89 +2962,89 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="5">
         <v>45160</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I19" s="5">
         <v>45160</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="27" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20" s="5">
         <v>45160</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -2501,22 +3061,22 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I21" s="5">
         <v>45160</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -2527,83 +3087,83 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I22" s="5">
         <v>45160</v>
       </c>
       <c r="J22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I23" s="5">
         <v>45160</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="5">
         <v>45160</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -2620,19 +3180,19 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I25" s="5">
         <v>45160</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -2649,22 +3209,22 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I26" s="5">
         <v>45160</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2675,112 +3235,112 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I27" s="5">
         <v>45160</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="27" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="5">
         <v>45160</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>58</v>
       </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="5">
         <v>45160</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I30" s="5">
         <v>45160</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -2788,28 +3348,28 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I31" s="5">
         <v>45160</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -2817,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I32" s="5">
         <v>45160</v>
       </c>
       <c r="J32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
@@ -2846,28 +3406,28 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I33" s="5">
         <v>45160</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
@@ -2875,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -2884,19 +3444,19 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I34" s="5">
         <v>45160</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
@@ -2904,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -2913,19 +3473,19 @@
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="5">
         <v>45160</v>
       </c>
       <c r="J35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
@@ -2933,28 +3493,31 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="5">
         <v>45160</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="K36" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
@@ -2962,31 +3525,28 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="5">
         <v>45160</v>
       </c>
       <c r="J37" t="s">
-        <v>112</v>
-      </c>
-      <c r="K37" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.15">
@@ -2994,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I38" s="5">
         <v>45160</v>
       </c>
       <c r="J38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
@@ -3023,28 +3583,28 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="5">
         <v>45160</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.15">
@@ -3052,28 +3612,28 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I40" s="5">
         <v>45160</v>
       </c>
       <c r="J40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.15">
@@ -3081,7 +3641,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -3090,19 +3650,19 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I41" s="5">
         <v>45160</v>
       </c>
       <c r="J41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.15">
@@ -3110,7 +3670,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -3119,19 +3679,19 @@
         <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I42" s="5">
         <v>45160</v>
       </c>
       <c r="J42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.15">
@@ -3139,327 +3699,1086 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I43" s="5">
         <v>45160</v>
       </c>
       <c r="J43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="F44" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I44" s="5">
         <v>45160</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>61</v>
       </c>
-      <c r="D45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" t="s">
-        <v>171</v>
-      </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I45" s="5">
         <v>45160</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I46" s="5">
         <v>45160</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>49</v>
       </c>
-      <c r="D47" t="s">
-        <v>50</v>
-      </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I47" s="5">
         <v>45160</v>
       </c>
       <c r="J47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>49</v>
       </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I48" s="5">
         <v>45160</v>
       </c>
       <c r="J48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I49" s="5">
-        <v>45160</v>
+        <v>45195</v>
       </c>
       <c r="J49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I50" s="5">
-        <v>45195</v>
+        <v>45203</v>
       </c>
       <c r="J50" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="K50" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I51" s="5">
         <v>45203</v>
       </c>
       <c r="J51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
         <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I52" s="5">
         <v>45203</v>
       </c>
       <c r="J52" t="s">
-        <v>112</v>
-      </c>
-      <c r="K52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="C53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53" t="s">
-        <v>172</v>
-      </c>
-      <c r="H53" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="5">
-        <v>45203</v>
-      </c>
-      <c r="J53" t="s">
-        <v>112</v>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="77.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="5">
+        <v>45167</v>
+      </c>
+      <c r="H11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45195</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45195</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="5">
+        <v>45195</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="5">
+        <v>45228</v>
+      </c>
+      <c r="H27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" s="4" customFormat="1" ht="296.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3488,7 +4807,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -3522,340 +4841,340 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="5">
         <v>45167</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" s="5">
         <v>45167</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="5">
         <v>45167</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
         <v>121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" t="s">
-        <v>122</v>
       </c>
       <c r="H9" s="5">
         <v>45167</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="5">
         <v>45167</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H11" s="5">
         <v>45167</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="5">
         <v>45167</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" s="5">
         <v>45167</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="5">
         <v>45167</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H15" s="5">
         <v>45167</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="5">
         <v>45203</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +5206,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -3921,80 +5240,80 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H4" s="5">
         <v>45167</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
       <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="5">
         <v>45167</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="5">
         <v>45203</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4008,7 +5327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -4055,401 +5374,401 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" s="5">
         <v>45195</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="5">
         <v>45195</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="5">
         <v>45195</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="5">
         <v>45195</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="5">
         <v>45195</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="5">
         <v>45195</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="5">
         <v>45195</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="5">
         <v>45195</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="5">
         <v>45195</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="5">
         <v>45195</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="5">
         <v>45195</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="5">
         <v>45195</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="5">
         <v>45195</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" t="s">
         <v>136</v>
       </c>
-      <c r="D16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" t="s">
-        <v>137</v>
-      </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="5">
         <v>45195</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" t="s">
         <v>160</v>
       </c>
-      <c r="D17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" t="s">
-        <v>163</v>
-      </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="5">
         <v>45203</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:10" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
       <c r="C19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4461,313 +5780,2863 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I16"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="77.625" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="75.75" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="49.875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
       <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
       <c r="E3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="75.75" customWidth="1"/>
+    <col min="6" max="6" width="48.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="64.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="5">
-        <v>45167</v>
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="5">
-        <v>45167</v>
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="5">
-        <v>45167</v>
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="5">
-        <v>45167</v>
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="5">
-        <v>45167</v>
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="5">
-        <v>45167</v>
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="5">
-        <v>45167</v>
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="5">
-        <v>45167</v>
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
       </c>
       <c r="E12" t="s">
         <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="5">
-        <v>45195</v>
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
       </c>
       <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
         <v>167</v>
       </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22"/>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="5">
+        <v>45160</v>
+      </c>
+      <c r="J34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J44" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" t="s">
+        <v>163</v>
+      </c>
+      <c r="H45" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>163</v>
+      </c>
+      <c r="H46" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I48" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" t="s">
+        <v>110</v>
+      </c>
+      <c r="I49" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I52" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H53" t="s">
+        <v>110</v>
+      </c>
+      <c r="I53" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s">
+        <v>163</v>
+      </c>
+      <c r="H54" t="s">
+        <v>110</v>
+      </c>
+      <c r="I54" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" t="s">
+        <v>163</v>
+      </c>
+      <c r="H55" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" t="s">
+        <v>110</v>
+      </c>
+      <c r="I56" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I57" s="5">
+        <v>45228</v>
+      </c>
+      <c r="J57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="49.875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" t="s">
+        <v>196</v>
+      </c>
       <c r="F13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="5">
-        <v>45195</v>
-      </c>
-      <c r="H13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>151</v>
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
       </c>
       <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
         <v>167</v>
       </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="5">
-        <v>45195</v>
-      </c>
-      <c r="H14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>138</v>
+      <c r="E15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
